--- a/GUI + Reviews/202512/Asia Pacific 500.xlsx
+++ b/GUI + Reviews/202512/Asia Pacific 500.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66435CE2-114F-4B88-ABD4-417D943F4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC2E465-2CCB-4EEF-A31F-2F84AC6733B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD3EFEDA-E34E-4402-BE9F-912867D3840D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2C32741A-12AC-402D-B251-245F45BEEE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4891,21 +4891,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C72944A1-3CC5-4783-A2F6-5D8B88DD9392}" name="Universe" displayName="Universe" ref="A1:L501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:L501" xr:uid="{C72944A1-3CC5-4783-A2F6-5D8B88DD9392}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEADBA07-367E-435C-AAF7-D06E9D07DA9D}" name="Universe" displayName="Universe" ref="A1:L501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:L501" xr:uid="{AEADBA07-367E-435C-AAF7-D06E9D07DA9D}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7C2ED1AE-7073-48E7-BD6F-1EEBA33151A3}" name="Rank" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{98D4DC36-B0BE-4560-B6CF-D044BA4F42E8}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CF9A0213-0099-4A37-9526-67649DFCB2F4}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5C9AB164-2337-4D5A-A691-AB35B7471B4F}" name="ISIN" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{60B89411-8D21-465C-8C88-B1E573CADE89}" name="Currency (Local)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6AF311A2-A0FD-433B-AA21-63E48DB60777}" name="Price (EUR) " dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{67C753A2-BCCE-404D-A072-89E671DB3C14}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{791F7D2B-0D4E-4EF4-9335-01E4BA670D32}" name="MIC" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{7B012D1F-8052-4C0D-AACF-689665ACE957}" name="Sec Market Value (EUR)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EBCE50E1-6452-4DF7-82C6-463A7F032133}" name="20 days aver. turn EUR" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{EDB21EF0-A7D1-491D-8F52-CCFEDAC8146F}" name="6 month aver. turnover EUR" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{442B3A1C-804D-4848-B7B4-20C52407DCC1}" name="3 month average turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1F9F02AF-7A5A-46AD-AEE7-C5BC46992D33}" name="Rank" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1178EDDC-9F76-4FE6-BDE0-CCB5736D3E5C}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{DA1814A6-2519-4380-8E4A-E8A36F825A6C}" name="Ticker" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3ADA436F-2804-4F0B-8194-4D6A4C4881DF}" name="ISIN" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{455FBB65-0011-44BC-A820-42B6BFAD68A8}" name="Currency (Local)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AC6534D1-7432-4028-A479-A037DC6D8963}" name="Price (EUR) " dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{C0255CB3-A91B-4859-BD21-61CE15B7623E}" name="NOSH" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E83BDF33-ECF2-4BB4-9F2B-1AC2F832D464}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{FCE250BE-D52E-4A37-AE76-2F18848897D9}" name="Sec Market Value (EUR)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{AC8E423C-751A-4F3A-AC8B-05DB53A542BB}" name="20 days aver. turn EUR" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{82E58FE3-156E-4CA5-8F59-5B54CD4C5608}" name="6 month aver. turnover EUR" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{690FB3E3-773E-4C7F-823D-FEC280B2FB76}" name="3 month average turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5227,8 +5227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13AEC28-1782-448D-84AD-B4545660EB10}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5BB2CF-3810-4BF8-9885-B10D57A1B949}">
   <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
